--- a/Output.xlsx
+++ b/Output.xlsx
@@ -461,8 +461,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>10</t>
@@ -473,7 +481,11 @@
           <t>Study material</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Thank you</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,21 +471,34 @@
           <t>Parker</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Thank you</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Study material</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Thank you</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,82 @@
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Study material</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,17 +553,30 @@
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Study material</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,17 +566,30 @@
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Study material</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,17 +579,30 @@
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Study material</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,17 +592,30 @@
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Study material</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Study material</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
